--- a/data/pca/factorExposure/factorExposure_2009-10-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.008483379467706156</v>
+        <v>0.01671932772713684</v>
       </c>
       <c r="C2">
-        <v>-0.00163834658218711</v>
+        <v>0.0009147708486534436</v>
       </c>
       <c r="D2">
-        <v>-0.007972672783349797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.00880601626417637</v>
+      </c>
+      <c r="E2">
+        <v>0.001427055241514156</v>
+      </c>
+      <c r="F2">
+        <v>-0.01262589211236375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1096931452393597</v>
+        <v>0.09385162287539868</v>
       </c>
       <c r="C4">
-        <v>-0.001546238414558974</v>
+        <v>0.01473896130769003</v>
       </c>
       <c r="D4">
-        <v>-0.04912206562140482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08508604157474825</v>
+      </c>
+      <c r="E4">
+        <v>0.02871926045972734</v>
+      </c>
+      <c r="F4">
+        <v>0.03191936731083393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1380971825828765</v>
+        <v>0.1589535216290581</v>
       </c>
       <c r="C6">
-        <v>-0.005700431435660742</v>
+        <v>0.02619448182464453</v>
       </c>
       <c r="D6">
-        <v>0.02981706730412072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02280528087094107</v>
+      </c>
+      <c r="E6">
+        <v>0.01165984138504808</v>
+      </c>
+      <c r="F6">
+        <v>0.04584095057035252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07548239974543167</v>
+        <v>0.06329982997602147</v>
       </c>
       <c r="C7">
-        <v>0.01094699263767145</v>
+        <v>-0.001749100284628349</v>
       </c>
       <c r="D7">
-        <v>-0.03074871893587959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05304856753646626</v>
+      </c>
+      <c r="E7">
+        <v>0.00910514144439643</v>
+      </c>
+      <c r="F7">
+        <v>0.04696509940482159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06786615695411265</v>
+        <v>0.05723614586524157</v>
       </c>
       <c r="C8">
-        <v>0.02046232463369391</v>
+        <v>-0.01349703073396594</v>
       </c>
       <c r="D8">
-        <v>0.007902526962135342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03309264782104502</v>
+      </c>
+      <c r="E8">
+        <v>0.01735676015929069</v>
+      </c>
+      <c r="F8">
+        <v>-0.02728107696173324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.09031304436127781</v>
+        <v>0.0708685251168391</v>
       </c>
       <c r="C9">
-        <v>-0.001861498138863622</v>
+        <v>0.01031054401346512</v>
       </c>
       <c r="D9">
-        <v>-0.04810013433136723</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0871068368214753</v>
+      </c>
+      <c r="E9">
+        <v>0.02263671835665579</v>
+      </c>
+      <c r="F9">
+        <v>0.04750146008292461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.05487889261895687</v>
+        <v>0.09295245077988561</v>
       </c>
       <c r="C10">
-        <v>-0.001753105026780195</v>
+        <v>0.02108465126521391</v>
       </c>
       <c r="D10">
-        <v>0.1377579691981775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1672259731403259</v>
+      </c>
+      <c r="E10">
+        <v>-0.03571273909322441</v>
+      </c>
+      <c r="F10">
+        <v>-0.05403734320680823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09911367816454962</v>
+        <v>0.08800191239844471</v>
       </c>
       <c r="C11">
-        <v>-0.001237636378967933</v>
+        <v>0.01040310688948757</v>
       </c>
       <c r="D11">
-        <v>-0.07998824441483272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.116876380772478</v>
+      </c>
+      <c r="E11">
+        <v>0.0459300315080934</v>
+      </c>
+      <c r="F11">
+        <v>0.02202297965517989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1071949112769852</v>
+        <v>0.09200850996717158</v>
       </c>
       <c r="C12">
-        <v>0.001450630724531559</v>
+        <v>0.007713712304541038</v>
       </c>
       <c r="D12">
-        <v>-0.0799982616000335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1321930430536457</v>
+      </c>
+      <c r="E12">
+        <v>0.0478790548256113</v>
+      </c>
+      <c r="F12">
+        <v>0.02778983547778935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04431642055038516</v>
+        <v>0.04198372561508829</v>
       </c>
       <c r="C13">
-        <v>0.0007657430222397476</v>
+        <v>0.002777524978592528</v>
       </c>
       <c r="D13">
-        <v>-0.02937468607619317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.0536764474778894</v>
+      </c>
+      <c r="E13">
+        <v>-0.008285263058316094</v>
+      </c>
+      <c r="F13">
+        <v>0.001252744564166805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02011382609015109</v>
+        <v>0.02406477477100223</v>
       </c>
       <c r="C14">
-        <v>-0.01136973022142996</v>
+        <v>0.01394558438164553</v>
       </c>
       <c r="D14">
-        <v>-0.02574836960767151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03272706052680157</v>
+      </c>
+      <c r="E14">
+        <v>0.01702409872073462</v>
+      </c>
+      <c r="F14">
+        <v>0.01272332532106628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04226640551860146</v>
+        <v>0.03263121187881832</v>
       </c>
       <c r="C15">
-        <v>-0.001090005155633021</v>
+        <v>0.00464414668623118</v>
       </c>
       <c r="D15">
-        <v>-0.01228337432800226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04514572654540508</v>
+      </c>
+      <c r="E15">
+        <v>0.005421831834333194</v>
+      </c>
+      <c r="F15">
+        <v>0.02391141752529795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08813295418677355</v>
+        <v>0.07438635865850535</v>
       </c>
       <c r="C16">
-        <v>0.006291223981710355</v>
+        <v>0.001024584328828132</v>
       </c>
       <c r="D16">
-        <v>-0.074169816230302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1276106458198826</v>
+      </c>
+      <c r="E16">
+        <v>0.06197148991482882</v>
+      </c>
+      <c r="F16">
+        <v>0.02609329716754314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0004088218142414253</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-5.217800994416363e-05</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.0006332078836504942</v>
+      </c>
+      <c r="E17">
+        <v>-0.000366466402105627</v>
+      </c>
+      <c r="F17">
+        <v>-0.0002997486710500053</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03492604390700973</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003075546838731426</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01631448316092569</v>
+      </c>
+      <c r="E18">
+        <v>-0.007183628370600973</v>
+      </c>
+      <c r="F18">
+        <v>-0.008598624753576149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06567551841338275</v>
+        <v>0.0614680961534539</v>
       </c>
       <c r="C20">
-        <v>0.003397662284632897</v>
+        <v>-0.0001116768044029556</v>
       </c>
       <c r="D20">
-        <v>-0.022489040451872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07761604122817729</v>
+      </c>
+      <c r="E20">
+        <v>0.05567394455464347</v>
+      </c>
+      <c r="F20">
+        <v>0.0237774859600537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03945138139279356</v>
+        <v>0.04084213004414812</v>
       </c>
       <c r="C21">
-        <v>-0.004614398377965102</v>
+        <v>0.006547415327603097</v>
       </c>
       <c r="D21">
-        <v>-0.01098920810150629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03753566465704551</v>
+      </c>
+      <c r="E21">
+        <v>-0.005366730512053148</v>
+      </c>
+      <c r="F21">
+        <v>-0.02500544538547428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02287064812534144</v>
+        <v>0.04271101072465099</v>
       </c>
       <c r="C22">
-        <v>0.001254197861516579</v>
+        <v>0.0005888594771320492</v>
       </c>
       <c r="D22">
-        <v>0.02178364995238065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.00704166291352636</v>
+      </c>
+      <c r="E22">
+        <v>0.03252262923211943</v>
+      </c>
+      <c r="F22">
+        <v>-0.0406726205255637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02281042591731505</v>
+        <v>0.04268695992999826</v>
       </c>
       <c r="C23">
-        <v>0.001252502537971672</v>
+        <v>0.0005805781049483288</v>
       </c>
       <c r="D23">
-        <v>0.02178012149400256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007057707620158321</v>
+      </c>
+      <c r="E23">
+        <v>0.03270707684342213</v>
+      </c>
+      <c r="F23">
+        <v>-0.04063617742078229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09517392174196604</v>
+        <v>0.0801977237193736</v>
       </c>
       <c r="C24">
-        <v>0.007115821613142455</v>
+        <v>0.001704976612627585</v>
       </c>
       <c r="D24">
-        <v>-0.08424892789970641</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1218069507400636</v>
+      </c>
+      <c r="E24">
+        <v>0.04903719763041911</v>
+      </c>
+      <c r="F24">
+        <v>0.02712209909927801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0982738009501692</v>
+        <v>0.08546246844234734</v>
       </c>
       <c r="C25">
-        <v>0.004329958790793987</v>
+        <v>0.004419517492813008</v>
       </c>
       <c r="D25">
-        <v>-0.0823428703133498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.109349593717392</v>
+      </c>
+      <c r="E25">
+        <v>0.03231037473123904</v>
+      </c>
+      <c r="F25">
+        <v>0.02686272202509948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05255642652911548</v>
+        <v>0.05792630096602488</v>
       </c>
       <c r="C26">
-        <v>-0.0106729964000435</v>
+        <v>0.01402110317674378</v>
       </c>
       <c r="D26">
-        <v>-0.004400129236282357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04100701322418756</v>
+      </c>
+      <c r="E26">
+        <v>0.02768461036391337</v>
+      </c>
+      <c r="F26">
+        <v>-0.006306079148278957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1040039139163868</v>
+        <v>0.1419047803395857</v>
       </c>
       <c r="C28">
-        <v>0.009067400971364992</v>
+        <v>0.02177241254602254</v>
       </c>
       <c r="D28">
-        <v>0.2569892862706292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2616110982466188</v>
+      </c>
+      <c r="E28">
+        <v>-0.06752000789626147</v>
+      </c>
+      <c r="F28">
+        <v>0.009368533122111024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02375389491341575</v>
+        <v>0.02858190085223712</v>
       </c>
       <c r="C29">
-        <v>-0.006570464275576507</v>
+        <v>0.008834213878538794</v>
       </c>
       <c r="D29">
-        <v>-0.01415563315391484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0309274934998574</v>
+      </c>
+      <c r="E29">
+        <v>0.01123414311638911</v>
+      </c>
+      <c r="F29">
+        <v>-0.01316952362158295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09917179239074363</v>
+        <v>0.05996338658715127</v>
       </c>
       <c r="C30">
-        <v>0.00970771327201575</v>
+        <v>0.002705434571205241</v>
       </c>
       <c r="D30">
-        <v>-0.05348562831867327</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08959542646200634</v>
+      </c>
+      <c r="E30">
+        <v>0.01929155117200731</v>
+      </c>
+      <c r="F30">
+        <v>0.07930384538903336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03532190597775797</v>
+        <v>0.05066448103032974</v>
       </c>
       <c r="C31">
-        <v>-0.0118813221022759</v>
+        <v>0.01531861332433883</v>
       </c>
       <c r="D31">
-        <v>-0.0153740157127731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0245667784246249</v>
+      </c>
+      <c r="E31">
+        <v>0.02776429663108764</v>
+      </c>
+      <c r="F31">
+        <v>-0.002536083844274379</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04813942202263905</v>
+        <v>0.05133364749717052</v>
       </c>
       <c r="C32">
-        <v>0.00665904947800674</v>
+        <v>-0.001761882521387956</v>
       </c>
       <c r="D32">
-        <v>-0.01291704856579583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0351074573926119</v>
+      </c>
+      <c r="E32">
+        <v>0.03243024540618979</v>
+      </c>
+      <c r="F32">
+        <v>0.003096177204386032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1034254622890522</v>
+        <v>0.08940735471142384</v>
       </c>
       <c r="C33">
-        <v>0.003631143741000405</v>
+        <v>0.007067584655152817</v>
       </c>
       <c r="D33">
-        <v>-0.05667469003119776</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1002597726436197</v>
+      </c>
+      <c r="E33">
+        <v>0.04343827778183565</v>
+      </c>
+      <c r="F33">
+        <v>0.03583410583101844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08718033093885258</v>
+        <v>0.06783258365445539</v>
       </c>
       <c r="C34">
-        <v>-0.0009579581504218378</v>
+        <v>0.01003416215085708</v>
       </c>
       <c r="D34">
-        <v>-0.077307162263602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1090154105059427</v>
+      </c>
+      <c r="E34">
+        <v>0.03484052781707186</v>
+      </c>
+      <c r="F34">
+        <v>0.03327893670005689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02176758427266556</v>
+        <v>0.02469885282107237</v>
       </c>
       <c r="C35">
-        <v>0.001095973223895715</v>
+        <v>0.002512467014968308</v>
       </c>
       <c r="D35">
-        <v>-0.003458379682607937</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01125507183945641</v>
+      </c>
+      <c r="E35">
+        <v>0.01166910980568739</v>
+      </c>
+      <c r="F35">
+        <v>0.0007965055551441235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01421088259670911</v>
+        <v>0.02755538895066563</v>
       </c>
       <c r="C36">
-        <v>-0.008204672418131663</v>
+        <v>0.006806131650356853</v>
       </c>
       <c r="D36">
-        <v>-0.02759553090258956</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03958878242612397</v>
+      </c>
+      <c r="E36">
+        <v>0.01622564176304817</v>
+      </c>
+      <c r="F36">
+        <v>0.01545808474942844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001257392681363184</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006088888120698896</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.002449150701869196</v>
+      </c>
+      <c r="E37">
+        <v>-0.00179683673212709</v>
+      </c>
+      <c r="F37">
+        <v>0.0007973463706603572</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0004715029406700024</v>
+        <v>-9.791537057493899e-05</v>
       </c>
       <c r="C38">
-        <v>-5.621305778052332e-05</v>
+        <v>-9.233765412095284e-05</v>
       </c>
       <c r="D38">
-        <v>-0.001167465889948794</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0003010694001411233</v>
+      </c>
+      <c r="E38">
+        <v>-0.0007019527167902831</v>
+      </c>
+      <c r="F38">
+        <v>0.0001269526579837427</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1353320718981167</v>
+        <v>0.1050881363408283</v>
       </c>
       <c r="C39">
-        <v>-0.0008266049384773417</v>
+        <v>0.01560791510100043</v>
       </c>
       <c r="D39">
-        <v>-0.1188511893004129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1546461606158286</v>
+      </c>
+      <c r="E39">
+        <v>0.05915482640642176</v>
+      </c>
+      <c r="F39">
+        <v>0.03003047798245802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0277983159295315</v>
+        <v>0.04159389093776768</v>
       </c>
       <c r="C40">
-        <v>-0.005521376836545645</v>
+        <v>0.006684110858319873</v>
       </c>
       <c r="D40">
-        <v>0.01470999371303933</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03201944819129606</v>
+      </c>
+      <c r="E40">
+        <v>0.002007508912456817</v>
+      </c>
+      <c r="F40">
+        <v>-0.01590486763659519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01905421199531333</v>
+        <v>0.02772787017761462</v>
       </c>
       <c r="C41">
-        <v>-0.004934813659882221</v>
+        <v>0.006850764873075189</v>
       </c>
       <c r="D41">
-        <v>0.0004926695820514335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01033819241453225</v>
+      </c>
+      <c r="E41">
+        <v>0.01239048534615485</v>
+      </c>
+      <c r="F41">
+        <v>-0.007429748071957216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.01766913836807443</v>
+        <v>0.04060196100303916</v>
       </c>
       <c r="C43">
-        <v>-0.006990116808164872</v>
+        <v>0.007080206685118141</v>
       </c>
       <c r="D43">
-        <v>-0.01069475683864096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01903091622979241</v>
+      </c>
+      <c r="E43">
+        <v>0.02468276280545674</v>
+      </c>
+      <c r="F43">
+        <v>-0.01424416783752299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1054628858584095</v>
+        <v>0.079647010276618</v>
       </c>
       <c r="C44">
-        <v>-0.008668618186484579</v>
+        <v>0.01936976706218263</v>
       </c>
       <c r="D44">
-        <v>-0.05022842171930365</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09811523746905437</v>
+      </c>
+      <c r="E44">
+        <v>0.06221823141726947</v>
+      </c>
+      <c r="F44">
+        <v>0.1558734497701625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.003869079416630632</v>
+        <v>0.02343476595685987</v>
       </c>
       <c r="C46">
-        <v>-0.004544913928919719</v>
+        <v>0.00351600021288277</v>
       </c>
       <c r="D46">
-        <v>0.001101982653329031</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01340303538061248</v>
+      </c>
+      <c r="E46">
+        <v>0.02213527251341552</v>
+      </c>
+      <c r="F46">
+        <v>-0.007245835540767714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04260194656486747</v>
+        <v>0.05198435013259187</v>
       </c>
       <c r="C47">
-        <v>0.0007387480975333659</v>
+        <v>0.00331794032402598</v>
       </c>
       <c r="D47">
-        <v>0.02325910363993923</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01407334547867575</v>
+      </c>
+      <c r="E47">
+        <v>0.02351532850625007</v>
+      </c>
+      <c r="F47">
+        <v>-0.03302969786192449</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.05381829218345315</v>
+        <v>0.05011680651144</v>
       </c>
       <c r="C48">
-        <v>0.003101130377478715</v>
+        <v>0.002203797686805054</v>
       </c>
       <c r="D48">
-        <v>-0.02562216132504571</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04987991284527266</v>
+      </c>
+      <c r="E48">
+        <v>-0.005860131352494235</v>
+      </c>
+      <c r="F48">
+        <v>0.009181299885368871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.223915013005774</v>
+        <v>0.2003738278057599</v>
       </c>
       <c r="C49">
-        <v>0.01720564811708176</v>
+        <v>0.01895287232359412</v>
       </c>
       <c r="D49">
-        <v>0.03268339783810779</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.006553584789271389</v>
+      </c>
+      <c r="E49">
+        <v>0.0317217961498362</v>
+      </c>
+      <c r="F49">
+        <v>0.03669875513182661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04047616939630994</v>
+        <v>0.05107724843765792</v>
       </c>
       <c r="C50">
-        <v>-0.007172080156002341</v>
+        <v>0.01103340784165912</v>
       </c>
       <c r="D50">
-        <v>-0.008257273076178082</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02398400402731972</v>
+      </c>
+      <c r="E50">
+        <v>0.02988235858690833</v>
+      </c>
+      <c r="F50">
+        <v>0.008669600668025553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0005678265972982729</v>
+        <v>-0.0003081084946358021</v>
       </c>
       <c r="C51">
-        <v>-3.485522511547032e-05</v>
+        <v>-7.004417739196e-05</v>
       </c>
       <c r="D51">
-        <v>-0.0004721843342556533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>7.836995053353575e-05</v>
+      </c>
+      <c r="E51">
+        <v>-0.0001947463311239085</v>
+      </c>
+      <c r="F51">
+        <v>0.0007420377184946868</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1584320034421793</v>
+        <v>0.1469174060723181</v>
       </c>
       <c r="C52">
-        <v>0.009246279359113123</v>
+        <v>0.01667307020933406</v>
       </c>
       <c r="D52">
-        <v>-0.03756882483873233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04268551724425415</v>
+      </c>
+      <c r="E52">
+        <v>0.02019442356332458</v>
+      </c>
+      <c r="F52">
+        <v>0.04238348324363008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1740934420234369</v>
+        <v>0.1711860877610812</v>
       </c>
       <c r="C53">
-        <v>0.01099231046745036</v>
+        <v>0.01946058257491797</v>
       </c>
       <c r="D53">
-        <v>0.0002259957779149955</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.005195160404017218</v>
+      </c>
+      <c r="E53">
+        <v>0.0310277353706528</v>
+      </c>
+      <c r="F53">
+        <v>0.07225609580786438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02478278592825796</v>
+        <v>0.02167120749492044</v>
       </c>
       <c r="C54">
-        <v>-0.008119375814158393</v>
+        <v>0.01172769043930832</v>
       </c>
       <c r="D54">
-        <v>-0.01724009787855975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03452710336155634</v>
+      </c>
+      <c r="E54">
+        <v>0.01742084980560709</v>
+      </c>
+      <c r="F54">
+        <v>-0.004603119043385058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1053654163144139</v>
+        <v>0.1139760907432595</v>
       </c>
       <c r="C55">
-        <v>0.001512427241081585</v>
+        <v>0.01692379413583049</v>
       </c>
       <c r="D55">
-        <v>0.003916636835253937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008265637177973543</v>
+      </c>
+      <c r="E55">
+        <v>0.02705900190704612</v>
+      </c>
+      <c r="F55">
+        <v>0.04684841806912818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1744785545094424</v>
+        <v>0.1763719127857115</v>
       </c>
       <c r="C56">
-        <v>0.01327381915493802</v>
+        <v>0.01725559056134631</v>
       </c>
       <c r="D56">
-        <v>0.01711276260542811</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001277862260294823</v>
+      </c>
+      <c r="E56">
+        <v>0.03534165609886242</v>
+      </c>
+      <c r="F56">
+        <v>0.05055221487056382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0353447562221907</v>
+        <v>0.04499377461470942</v>
       </c>
       <c r="C58">
-        <v>-0.001921084873357289</v>
+        <v>-0.0004539663202096516</v>
       </c>
       <c r="D58">
-        <v>-0.04128479843765033</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07104169997400042</v>
+      </c>
+      <c r="E58">
+        <v>0.02803915160264991</v>
+      </c>
+      <c r="F58">
+        <v>-0.0380904033358275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1285086771978595</v>
+        <v>0.1671111630172021</v>
       </c>
       <c r="C59">
-        <v>0.01101123907320253</v>
+        <v>0.02168802334940169</v>
       </c>
       <c r="D59">
-        <v>0.2290186052892721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2174080198641916</v>
+      </c>
+      <c r="E59">
+        <v>-0.04659271180489798</v>
+      </c>
+      <c r="F59">
+        <v>-0.03528210582115238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2632811687167815</v>
+        <v>0.2316863633483502</v>
       </c>
       <c r="C60">
-        <v>0.04454836102488188</v>
+        <v>-0.002449307671524133</v>
       </c>
       <c r="D60">
-        <v>-0.02738545655530136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04170328448469641</v>
+      </c>
+      <c r="E60">
+        <v>0.01189023002610799</v>
+      </c>
+      <c r="F60">
+        <v>-0.006574125206845102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.109581130764896</v>
+        <v>0.08077971420353879</v>
       </c>
       <c r="C61">
-        <v>0.001598174703482643</v>
+        <v>0.01138092076539473</v>
       </c>
       <c r="D61">
-        <v>-0.07827491327947449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1177937825713269</v>
+      </c>
+      <c r="E61">
+        <v>0.03858816568163136</v>
+      </c>
+      <c r="F61">
+        <v>0.01257345889953308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1695309064312722</v>
+        <v>0.1695687011909316</v>
       </c>
       <c r="C62">
-        <v>0.009380873959872069</v>
+        <v>0.02047673447439571</v>
       </c>
       <c r="D62">
-        <v>0.01100074898581378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.005534895801717538</v>
+      </c>
+      <c r="E62">
+        <v>0.03402248171525198</v>
+      </c>
+      <c r="F62">
+        <v>0.0339162203938435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04680299607429172</v>
+        <v>0.04603062889225441</v>
       </c>
       <c r="C63">
-        <v>0.001747942935618955</v>
+        <v>0.001760130254496889</v>
       </c>
       <c r="D63">
-        <v>-0.03592928340673822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05878560342514366</v>
+      </c>
+      <c r="E63">
+        <v>0.02233491055472287</v>
+      </c>
+      <c r="F63">
+        <v>0.004315503472904312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09775440720853874</v>
+        <v>0.10970689761944</v>
       </c>
       <c r="C64">
-        <v>-0.0007019420388296815</v>
+        <v>0.01105285519765532</v>
       </c>
       <c r="D64">
-        <v>-0.007173402744827481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04417473996964136</v>
+      </c>
+      <c r="E64">
+        <v>0.0242275346234346</v>
+      </c>
+      <c r="F64">
+        <v>0.02479900229278118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1299146624005308</v>
+        <v>0.1494464963156986</v>
       </c>
       <c r="C65">
-        <v>-0.01195953579198355</v>
+        <v>0.03357660239849771</v>
       </c>
       <c r="D65">
-        <v>0.02742833960032148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04306639996031752</v>
+      </c>
+      <c r="E65">
+        <v>0.005911246139204428</v>
+      </c>
+      <c r="F65">
+        <v>0.0402615276983547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1600043088468475</v>
+        <v>0.1240788831781493</v>
       </c>
       <c r="C66">
-        <v>0.005063118021756964</v>
+        <v>0.01350851248007845</v>
       </c>
       <c r="D66">
-        <v>-0.115543256390527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1431712181300829</v>
+      </c>
+      <c r="E66">
+        <v>0.06544429383143822</v>
+      </c>
+      <c r="F66">
+        <v>0.03311406360537226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06695083586822735</v>
+        <v>0.05817027699890841</v>
       </c>
       <c r="C67">
-        <v>0.004931850025051671</v>
+        <v>0.002900184673096689</v>
       </c>
       <c r="D67">
-        <v>-0.02251791073791659</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05625302030683576</v>
+      </c>
+      <c r="E67">
+        <v>0.01609786108019465</v>
+      </c>
+      <c r="F67">
+        <v>-0.03120662209034354</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.0824732054409795</v>
+        <v>0.1158233085969223</v>
       </c>
       <c r="C68">
-        <v>-0.004280821707798726</v>
+        <v>0.03220980559513885</v>
       </c>
       <c r="D68">
-        <v>0.232056995682339</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2600459386063383</v>
+      </c>
+      <c r="E68">
+        <v>-0.08685928366591811</v>
+      </c>
+      <c r="F68">
+        <v>0.005783747966574254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03502070899147899</v>
+        <v>0.03957323465750755</v>
       </c>
       <c r="C69">
-        <v>0.003596948876633833</v>
+        <v>0.001228116860325753</v>
       </c>
       <c r="D69">
-        <v>0.005109259637217608</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007804811783464135</v>
+      </c>
+      <c r="E69">
+        <v>0.02193204949958548</v>
+      </c>
+      <c r="F69">
+        <v>0.001557906644945577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0332689327209723</v>
+        <v>0.06673102304161212</v>
       </c>
       <c r="C70">
-        <v>0.02688020357654827</v>
+        <v>-0.0275874862949709</v>
       </c>
       <c r="D70">
-        <v>0.03739088481975272</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0234948843742149</v>
+      </c>
+      <c r="E70">
+        <v>-0.03622152655591417</v>
+      </c>
+      <c r="F70">
+        <v>-0.1846509310762971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.0985229948206027</v>
+        <v>0.1359392249130601</v>
       </c>
       <c r="C71">
-        <v>-0.005788886998364492</v>
+        <v>0.0365889715622042</v>
       </c>
       <c r="D71">
-        <v>0.2507258515460698</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2722631746213516</v>
+      </c>
+      <c r="E71">
+        <v>-0.09706655094115588</v>
+      </c>
+      <c r="F71">
+        <v>0.01069915049194136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1353283279176374</v>
+        <v>0.1423644195413965</v>
       </c>
       <c r="C72">
-        <v>-0.004366041811671454</v>
+        <v>0.02662597929804816</v>
       </c>
       <c r="D72">
-        <v>0.02536973323319261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.002050800276277456</v>
+      </c>
+      <c r="E72">
+        <v>0.03895968666354888</v>
+      </c>
+      <c r="F72">
+        <v>0.0324734863810401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2043084900362599</v>
+        <v>0.202438741455183</v>
       </c>
       <c r="C73">
-        <v>0.02051602963415654</v>
+        <v>0.01251486439365103</v>
       </c>
       <c r="D73">
-        <v>0.01647992414057599</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01683933969795243</v>
+      </c>
+      <c r="E73">
+        <v>0.0639530501338151</v>
+      </c>
+      <c r="F73">
+        <v>0.0337886358701413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.102416994843037</v>
+        <v>0.0947954093084019</v>
       </c>
       <c r="C74">
-        <v>0.00463440686000909</v>
+        <v>0.01337510456024685</v>
       </c>
       <c r="D74">
-        <v>-0.004010710159282556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01689653898643955</v>
+      </c>
+      <c r="E74">
+        <v>0.04408398777418917</v>
+      </c>
+      <c r="F74">
+        <v>0.05723023072228202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1360169738207846</v>
+        <v>0.1274991998070872</v>
       </c>
       <c r="C75">
-        <v>-0.006101661422438378</v>
+        <v>0.02811687668748803</v>
       </c>
       <c r="D75">
-        <v>-0.00365982675903092</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03023896342268897</v>
+      </c>
+      <c r="E75">
+        <v>0.05751444475735348</v>
+      </c>
+      <c r="F75">
+        <v>0.02125016751806671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08569162672288404</v>
+        <v>0.08757735554641738</v>
       </c>
       <c r="C77">
-        <v>-0.002035056793407099</v>
+        <v>0.008219484584402068</v>
       </c>
       <c r="D77">
-        <v>-0.07935978723880005</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.11231347401155</v>
+      </c>
+      <c r="E77">
+        <v>0.04000546756155781</v>
+      </c>
+      <c r="F77">
+        <v>0.03330034898863966</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1376496622924039</v>
+        <v>0.1005593041625317</v>
       </c>
       <c r="C78">
-        <v>-0.02513508266715695</v>
+        <v>0.03954375818742947</v>
       </c>
       <c r="D78">
-        <v>-0.03503109304447603</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.115301135652667</v>
+      </c>
+      <c r="E78">
+        <v>0.0734507808246893</v>
+      </c>
+      <c r="F78">
+        <v>0.04732723360209532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1572339072907285</v>
+        <v>0.1637452031466486</v>
       </c>
       <c r="C79">
-        <v>0.002017796902996354</v>
+        <v>0.02280543117669257</v>
       </c>
       <c r="D79">
-        <v>0.01618895715471255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01388165004873642</v>
+      </c>
+      <c r="E79">
+        <v>0.04511995499802367</v>
+      </c>
+      <c r="F79">
+        <v>0.01067075952051947</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08864765291820954</v>
+        <v>0.08251380514850959</v>
       </c>
       <c r="C80">
-        <v>0.01227781094214452</v>
+        <v>-0.0009091543640967156</v>
       </c>
       <c r="D80">
-        <v>-0.0336044720742565</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05626715999779507</v>
+      </c>
+      <c r="E80">
+        <v>0.03626468389366352</v>
+      </c>
+      <c r="F80">
+        <v>-0.02279890729074182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1270902626637855</v>
+        <v>0.1202094043320474</v>
       </c>
       <c r="C81">
-        <v>-0.01150713555504694</v>
+        <v>0.03202977858865626</v>
       </c>
       <c r="D81">
-        <v>-0.008932800517473133</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01484500392714431</v>
+      </c>
+      <c r="E81">
+        <v>0.05594937415755298</v>
+      </c>
+      <c r="F81">
+        <v>0.01790488151707923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1727748119488139</v>
+        <v>0.1662505833034495</v>
       </c>
       <c r="C82">
-        <v>0.005183146155751379</v>
+        <v>0.024869311481239</v>
       </c>
       <c r="D82">
-        <v>-0.003644603507653209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00316795829042759</v>
+      </c>
+      <c r="E82">
+        <v>0.02857038842165768</v>
+      </c>
+      <c r="F82">
+        <v>0.08123179291328884</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06614681537215669</v>
+        <v>0.05923035181535542</v>
       </c>
       <c r="C83">
-        <v>0.00368755850022527</v>
+        <v>0.00268390135040535</v>
       </c>
       <c r="D83">
-        <v>-0.03165406629044765</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05140985718031064</v>
+      </c>
+      <c r="E83">
+        <v>0.004572712319564889</v>
+      </c>
+      <c r="F83">
+        <v>-0.02995835095915128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07494219771364513</v>
+        <v>0.0591617989889943</v>
       </c>
       <c r="C84">
-        <v>-0.003414209010638089</v>
+        <v>0.01111006428682623</v>
       </c>
       <c r="D84">
-        <v>-0.03802027220351881</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06379158685457115</v>
+      </c>
+      <c r="E84">
+        <v>0.006190951273626066</v>
+      </c>
+      <c r="F84">
+        <v>0.004872630885535738</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1348879591743618</v>
+        <v>0.1356530568094333</v>
       </c>
       <c r="C85">
-        <v>-0.005942760158675276</v>
+        <v>0.02802841383148054</v>
       </c>
       <c r="D85">
-        <v>0.002259644357710778</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009573530433969047</v>
+      </c>
+      <c r="E85">
+        <v>0.03645481541900752</v>
+      </c>
+      <c r="F85">
+        <v>0.04690921713195452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08189076166178666</v>
+        <v>0.09530389944402183</v>
       </c>
       <c r="C86">
-        <v>0.0098018080904242</v>
+        <v>-0.005240387871410449</v>
       </c>
       <c r="D86">
-        <v>0.1065050277065441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04094286419296941</v>
+      </c>
+      <c r="E86">
+        <v>0.2169827043172104</v>
+      </c>
+      <c r="F86">
+        <v>-0.9082724300999601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1305390856214791</v>
+        <v>0.09559981343223573</v>
       </c>
       <c r="C87">
-        <v>-0.006004328076389408</v>
+        <v>0.01959448626484923</v>
       </c>
       <c r="D87">
-        <v>-0.06320019654901901</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09476367857902568</v>
+      </c>
+      <c r="E87">
+        <v>-0.05339439440064788</v>
+      </c>
+      <c r="F87">
+        <v>0.05021511781735331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.0553644963404079</v>
+        <v>0.06079218854954282</v>
       </c>
       <c r="C88">
-        <v>0.002137735645801764</v>
+        <v>0.002193044466607612</v>
       </c>
       <c r="D88">
-        <v>-0.0191494132814011</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04930902830659163</v>
+      </c>
+      <c r="E88">
+        <v>0.02396074675240785</v>
+      </c>
+      <c r="F88">
+        <v>0.01303824286845819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1094710750547607</v>
+        <v>0.1306618267409469</v>
       </c>
       <c r="C89">
-        <v>0.01876592520958095</v>
+        <v>0.01326852210447784</v>
       </c>
       <c r="D89">
-        <v>0.2667675744188291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2471032732634861</v>
+      </c>
+      <c r="E89">
+        <v>-0.09065358327564239</v>
+      </c>
+      <c r="F89">
+        <v>-0.00681520667019151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1069621135635926</v>
+        <v>0.1512211326693061</v>
       </c>
       <c r="C90">
-        <v>-0.002611680096255299</v>
+        <v>0.03333520471854739</v>
       </c>
       <c r="D90">
-        <v>0.2523107142012677</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2706903799199483</v>
+      </c>
+      <c r="E90">
+        <v>-0.1133678789248476</v>
+      </c>
+      <c r="F90">
+        <v>-0.006357786132774661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1153730759495529</v>
+        <v>0.1208403140271442</v>
       </c>
       <c r="C91">
-        <v>0.001698920987706702</v>
+        <v>0.01954914027883506</v>
       </c>
       <c r="D91">
-        <v>0.03539477760510878</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01487489002999627</v>
+      </c>
+      <c r="E91">
+        <v>0.05596408550815691</v>
+      </c>
+      <c r="F91">
+        <v>-0.001840303628594051</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1129072190420076</v>
+        <v>0.1478477595000452</v>
       </c>
       <c r="C92">
-        <v>0.01345390057034788</v>
+        <v>0.02434372544545232</v>
       </c>
       <c r="D92">
-        <v>0.2732475878106329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2916462144804219</v>
+      </c>
+      <c r="E92">
+        <v>-0.1021716467374783</v>
+      </c>
+      <c r="F92">
+        <v>-0.01249710001890286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1133236289785573</v>
+        <v>0.1515944299520073</v>
       </c>
       <c r="C93">
-        <v>0.003653961452603532</v>
+        <v>0.02847795523013092</v>
       </c>
       <c r="D93">
-        <v>0.2610334664588131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2677356435634319</v>
+      </c>
+      <c r="E93">
+        <v>-0.07861214067332867</v>
+      </c>
+      <c r="F93">
+        <v>0.00351811133962694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1423616488830319</v>
+        <v>0.1290019889688408</v>
       </c>
       <c r="C94">
-        <v>-0.001430867410170135</v>
+        <v>0.02471578084997958</v>
       </c>
       <c r="D94">
-        <v>-0.02192693276075172</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04274910365804868</v>
+      </c>
+      <c r="E94">
+        <v>0.05669291592386672</v>
+      </c>
+      <c r="F94">
+        <v>0.03744528283735089</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1228054175021336</v>
+        <v>0.1268576309717989</v>
       </c>
       <c r="C95">
-        <v>0.008340844543837567</v>
+        <v>0.003307725221037791</v>
       </c>
       <c r="D95">
-        <v>-0.05272646262694206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.0939820677367505</v>
+      </c>
+      <c r="E95">
+        <v>0.04650990798220697</v>
+      </c>
+      <c r="F95">
+        <v>-0.006333507548882362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.05215803650138334</v>
+        <v>0.1081215726742635</v>
       </c>
       <c r="C96">
-        <v>0.9933646362117001</v>
+        <v>-0.9872134241757162</v>
       </c>
       <c r="D96">
-        <v>0.01955211367757943</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05007208431235313</v>
+      </c>
+      <c r="E96">
+        <v>0.05464821491179402</v>
+      </c>
+      <c r="F96">
+        <v>0.04161677950005947</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1763612432748377</v>
+        <v>0.1941540046747111</v>
       </c>
       <c r="C97">
-        <v>0.03556710889281436</v>
+        <v>-0.006916093002668829</v>
       </c>
       <c r="D97">
-        <v>0.0498501082472708</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01865627964319951</v>
+      </c>
+      <c r="E97">
+        <v>0.02156418389429841</v>
+      </c>
+      <c r="F97">
+        <v>-0.07969541059706398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2039215965950955</v>
+        <v>0.2061724296221623</v>
       </c>
       <c r="C98">
-        <v>0.02452158719528905</v>
+        <v>0.007353922484484779</v>
       </c>
       <c r="D98">
-        <v>0.00460468396837526</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01249581114198294</v>
+      </c>
+      <c r="E98">
+        <v>-0.08218972384688968</v>
+      </c>
+      <c r="F98">
+        <v>-0.09451174999410286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05375868996296939</v>
+        <v>0.05414391220630255</v>
       </c>
       <c r="C99">
-        <v>0.01104636139341449</v>
+        <v>-0.00476215428934651</v>
       </c>
       <c r="D99">
-        <v>-0.01470513118423192</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03971608101643551</v>
+      </c>
+      <c r="E99">
+        <v>0.02207343802188306</v>
+      </c>
+      <c r="F99">
+        <v>0.001515547244442431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1618505167635438</v>
+        <v>0.1255341689624416</v>
       </c>
       <c r="C100">
-        <v>0.05713796191878122</v>
+        <v>-0.05464449491472363</v>
       </c>
       <c r="D100">
-        <v>-0.5738520289324717</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3448031120132672</v>
+      </c>
+      <c r="E100">
+        <v>-0.8884482306505156</v>
+      </c>
+      <c r="F100">
+        <v>-0.1461706630680493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0234464888079655</v>
+        <v>0.02854492752892526</v>
       </c>
       <c r="C101">
-        <v>-0.006587712387576413</v>
+        <v>0.00886143987918935</v>
       </c>
       <c r="D101">
-        <v>-0.01334287274971933</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03052719405638673</v>
+      </c>
+      <c r="E101">
+        <v>0.01061323595769522</v>
+      </c>
+      <c r="F101">
+        <v>-0.01436413417123714</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
